--- a/acessinputs/Spelserie.xlsx
+++ b/acessinputs/Spelserie.xlsx
@@ -126,7 +126,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.71"/>
-    <col customWidth="1" min="2" max="2" width="44.57"/>
+    <col customWidth="1" min="2" max="2" width="68.43"/>
     <col customWidth="1" min="3" max="3" width="10.43"/>
     <col customWidth="1" min="4" max="4" width="13.29"/>
     <col customWidth="1" min="5" max="5" width="8.43"/>
